--- a/similarities/split_global/harmonic_similarity_timestamps_23.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['D#:min', 'E/G#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C:min', 'Db', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:34.866000')]</t>
+          <t>('0:03:19.440000', '0:03:22.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:01:03.359000', '0:01:09.226000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=199.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=63.359</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:36.200000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:46.460000', '0:02:05.020000'), ('0:00:14.480000', '0:00:47.200000')]</t>
+          <t>('0:01:14.120000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:35.920000', '0:00:47.140000'), ('0:00:41.780000', '0:00:50.420000')]</t>
+          <t>('0:00:03.260000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=106.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=14.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=35.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=41.78']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.600000', '0:00:11.320000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=8.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'F:min', 'B:dim7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:12.080000', '0:00:15.740000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:06.590000', '0:00:10.120000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=12.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:42.120000', '0:04:50.060000')]</t>
+          <t>('0:00:08.413696', '0:00:12.303038')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:04.360000', '0:04:15.460000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=244.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:54.380000', '0:00:58.560000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:29.840000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=54.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=22.6']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:29.888683', '0:00:38.514896')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.680000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=29.888683']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000')]</t>
+          <t>('0:00:11.260000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232')]</t>
+          <t>('0:00:33.814625', '0:00:37.738798')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:11.560000', '0:01:24.380000')]</t>
+          <t>('0:01:27.200000', '0:01:37.220000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:09.720000', '0:02:17.860000')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=71.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=87.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:00:26.360000', '0:00:34.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:26.160000', '0:00:34.300000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.480839', '0:00:13.717755')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000'), ('0:00:13.420000', '0:00:19.500000'), ('0:00:36.740000', '0:00:42.320000'), ('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.920000', '0:00:26.040000'), ('0:00:07.300000', '0:00:10.300000'), ('0:00:11.240000', '0:00:17.760000'), ('0:00:31.680000', '0:00:33.780000'), ('0:00:35.860000', '0:00:37.440000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=36.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=31.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['F:min', 'C:min', 'Eb/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G']]</t>
+          <t>['F:min', 'C:min', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000'), ('0:03:20.520000', '0:03:23.860000')]</t>
+          <t>('0:00:34.098000', '0:00:38.337000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.465419', '0:00:19.151224'), ('0:00:42.394399', '0:00:50.173083')]</t>
+          <t>('0:00:16.109841', '0:00:22.321179')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=34.098</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=16.109841</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['A:min7', 'D:sus4', 'D', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:min7', 'G:sus4', 'G', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:20.140000')]</t>
+          <t>('0:00:18.501065', '0:00:24.259614')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:23.740000', '0:00:51.720000')]</t>
+          <t>('0:01:38.821000', '0:01:46.710000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=18.501065</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=23.74']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=98.821</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
